--- a/汽柴煤油2.0/eta/EB-SC（期货指数）拟合残差-纯苯-Brent价差_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/EB-SC（期货指数）拟合残差-纯苯-Brent价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-156.6</v>
+        <v>-162.4</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-417.6</v>
+        <v>-428.4</v>
       </c>
       <c r="C3" t="n">
-        <v>-326.6</v>
+        <v>-324.5</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-274.7</v>
       </c>
       <c r="C4" t="n">
-        <v>-296</v>
+        <v>-296.9</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-153.9</v>
       </c>
       <c r="C5" t="n">
-        <v>-84</v>
+        <v>-96.7</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>-63</v>
       </c>
       <c r="C6" t="n">
-        <v>-63.2</v>
+        <v>-63.1</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>-148.4</v>
       </c>
       <c r="C7" t="n">
-        <v>-147.7</v>
+        <v>-147.9</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="9">
@@ -562,7 +562,7 @@
         <v>-6.5</v>
       </c>
       <c r="C10" t="n">
-        <v>-7.2</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="n">
-        <v>-60.2</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>-156.1</v>
       </c>
       <c r="C12" t="n">
-        <v>-155.8</v>
+        <v>-155.9</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>131.5</v>
       </c>
       <c r="C13" t="n">
-        <v>131.2</v>
+        <v>131.4</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>206.5</v>
       </c>
       <c r="C14" t="n">
-        <v>206.4</v>
+        <v>206.3</v>
       </c>
     </row>
     <row r="15">
@@ -640,7 +640,7 @@
         <v>-91</v>
       </c>
       <c r="C16" t="n">
-        <v>-90</v>
+        <v>-90.3</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>183.8</v>
       </c>
       <c r="C17" t="n">
-        <v>183.6</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>-13.6</v>
       </c>
       <c r="C18" t="n">
-        <v>-13.5</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>-263.7</v>
       </c>
       <c r="C19" t="n">
-        <v>-262</v>
+        <v>-261.8</v>
       </c>
     </row>
     <row r="20">
@@ -705,7 +705,7 @@
         <v>59.4</v>
       </c>
       <c r="C21" t="n">
-        <v>59.4</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="22">
@@ -731,7 +731,7 @@
         <v>26.5</v>
       </c>
       <c r="C23" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>132.2</v>
       </c>
       <c r="C24" t="n">
-        <v>132</v>
+        <v>131.9</v>
       </c>
     </row>
     <row r="25">
